--- a/sample-data/exams aqa 2018.xlsx
+++ b/sample-data/exams aqa 2018.xlsx
@@ -1,19 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10523"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alic/workspace/examdb/sample-data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8732828-8A12-0246-9A23-68B3A4B3F925}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2020" yWindow="8160" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AQA 2018" sheetId="1" r:id="rId1"/>
     <sheet name="References" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'AQA 2018'!$A$1:$K$151</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'AQA 2018'!$A$1:$K$151</definedName>
   </definedNames>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -23,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="352">
   <si>
     <t>History Paper 1 (new) (all options A to E)</t>
   </si>
@@ -950,12 +956,180 @@
   </si>
   <si>
     <t>Course</t>
+  </si>
+  <si>
+    <t>History</t>
+  </si>
+  <si>
+    <t>Bengali</t>
+  </si>
+  <si>
+    <t>Chinese (Mandarin)</t>
+  </si>
+  <si>
+    <t>Classical Civilisation</t>
+  </si>
+  <si>
+    <t>Economics</t>
+  </si>
+  <si>
+    <t>Engineering</t>
+  </si>
+  <si>
+    <t>Media Studies</t>
+  </si>
+  <si>
+    <t>Psychology</t>
+  </si>
+  <si>
+    <t>English Language</t>
+  </si>
+  <si>
+    <t>Geography</t>
+  </si>
+  <si>
+    <t>Spanish</t>
+  </si>
+  <si>
+    <t>Business Studies</t>
+  </si>
+  <si>
+    <t>Mathematics</t>
+  </si>
+  <si>
+    <t>Applied Business</t>
+  </si>
+  <si>
+    <t>Biology</t>
+  </si>
+  <si>
+    <t>Combined Science</t>
+  </si>
+  <si>
+    <t>Chemistry</t>
+  </si>
+  <si>
+    <t>Home Economics</t>
+  </si>
+  <si>
+    <t>Physics</t>
+  </si>
+  <si>
+    <t>Electronics</t>
+  </si>
+  <si>
+    <t>Health and Social Care</t>
+  </si>
+  <si>
+    <t>Design and Technology</t>
+  </si>
+  <si>
+    <t>Food preparation and nutritian</t>
+  </si>
+  <si>
+    <t>Panjabi</t>
+  </si>
+  <si>
+    <t>Citizenship Studies</t>
+  </si>
+  <si>
+    <t>Polish</t>
+  </si>
+  <si>
+    <t>Buiness and Commication Systems</t>
+  </si>
+  <si>
+    <t>German</t>
+  </si>
+  <si>
+    <t>Further Mathematics</t>
+  </si>
+  <si>
+    <t>General Studies</t>
+  </si>
+  <si>
+    <t>Geman</t>
+  </si>
+  <si>
+    <t>Statistics</t>
+  </si>
+  <si>
+    <t>Product Design</t>
+  </si>
+  <si>
+    <t>Dance</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>Preparation for Working Life</t>
+  </si>
+  <si>
+    <t>Computer Science</t>
+  </si>
+  <si>
+    <t>Information and Communication Technology</t>
+  </si>
+  <si>
+    <t>Law</t>
+  </si>
+  <si>
+    <t>Modern Hebrew</t>
+  </si>
+  <si>
+    <t>French</t>
+  </si>
+  <si>
+    <t>Religious Studies</t>
+  </si>
+  <si>
+    <t>Physical Education</t>
+  </si>
+  <si>
+    <t>Urdu</t>
+  </si>
+  <si>
+    <t>Drama</t>
+  </si>
+  <si>
+    <t>Performing Arts</t>
+  </si>
+  <si>
+    <t>Sociology</t>
+  </si>
+  <si>
+    <t>English Literature</t>
+  </si>
+  <si>
+    <t>Use of Mathematics</t>
+  </si>
+  <si>
+    <t>Italian</t>
+  </si>
+  <si>
+    <t>Leisure and Tourism</t>
+  </si>
+  <si>
+    <t>Design and Technology:
+Textiles Technology</t>
+  </si>
+  <si>
+    <t>Design and Technology:
+Systems and Control Technology</t>
+  </si>
+  <si>
+    <t>Design and Technology:
+Electronic Product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design and Technology: Resistant Materials Technology </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -991,6 +1165,7 @@
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1605,6 +1780,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1929,19 +2112,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="2"/>
     <col min="2" max="2" width="13.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.83203125" style="7"/>
+    <col min="4" max="4" width="10.83203125" style="7"/>
+    <col min="5" max="5" width="38.1640625" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" style="2"/>
     <col min="7" max="7" width="48.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="10.83203125" style="2"/>
@@ -1949,7 +2133,7 @@
     <col min="12" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>295</v>
       </c>
@@ -1984,7 +2168,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>41</v>
       </c>
@@ -1997,6 +2181,9 @@
       <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
+      <c r="E2" s="7" t="s">
+        <v>297</v>
+      </c>
       <c r="F2" s="2" t="s">
         <v>59</v>
       </c>
@@ -2013,7 +2200,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>41</v>
       </c>
@@ -2026,6 +2213,9 @@
       <c r="D3" s="7" t="s">
         <v>22</v>
       </c>
+      <c r="E3" s="7" t="s">
+        <v>298</v>
+      </c>
       <c r="F3" s="2" t="s">
         <v>59</v>
       </c>
@@ -2040,7 +2230,7 @@
       </c>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>41</v>
       </c>
@@ -2053,6 +2243,9 @@
       <c r="D4" s="7" t="s">
         <v>25</v>
       </c>
+      <c r="E4" s="7" t="s">
+        <v>298</v>
+      </c>
       <c r="F4" s="2" t="s">
         <v>59</v>
       </c>
@@ -2067,7 +2260,7 @@
       </c>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>41</v>
       </c>
@@ -2080,6 +2273,9 @@
       <c r="D5" s="7">
         <v>46354</v>
       </c>
+      <c r="E5" s="7" t="s">
+        <v>298</v>
+      </c>
       <c r="F5" s="2" t="s">
         <v>59</v>
       </c>
@@ -2091,7 +2287,7 @@
       </c>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>41</v>
       </c>
@@ -2104,6 +2300,9 @@
       <c r="D6" s="7" t="s">
         <v>28</v>
       </c>
+      <c r="E6" s="7" t="s">
+        <v>299</v>
+      </c>
       <c r="F6" s="2" t="s">
         <v>59</v>
       </c>
@@ -2120,7 +2319,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>41</v>
       </c>
@@ -2133,6 +2332,9 @@
       <c r="D7" s="7" t="s">
         <v>28</v>
       </c>
+      <c r="E7" s="7" t="s">
+        <v>299</v>
+      </c>
       <c r="F7" s="2" t="s">
         <v>59</v>
       </c>
@@ -2149,7 +2351,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>41</v>
       </c>
@@ -2162,6 +2364,9 @@
       <c r="D8" s="7" t="s">
         <v>30</v>
       </c>
+      <c r="E8" s="7" t="s">
+        <v>300</v>
+      </c>
       <c r="F8" s="2" t="s">
         <v>59</v>
       </c>
@@ -2176,7 +2381,7 @@
       </c>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>41</v>
       </c>
@@ -2189,6 +2394,9 @@
       <c r="D9" s="7" t="s">
         <v>32</v>
       </c>
+      <c r="E9" s="7" t="s">
+        <v>300</v>
+      </c>
       <c r="F9" s="2" t="s">
         <v>59</v>
       </c>
@@ -2203,7 +2411,7 @@
       </c>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>41</v>
       </c>
@@ -2216,6 +2424,9 @@
       <c r="D10" s="7">
         <v>413011</v>
       </c>
+      <c r="E10" s="7" t="s">
+        <v>301</v>
+      </c>
       <c r="F10" s="2" t="s">
         <v>59</v>
       </c>
@@ -2227,7 +2438,7 @@
       </c>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>41</v>
       </c>
@@ -2240,6 +2451,9 @@
       <c r="D11" s="7">
         <v>48503</v>
       </c>
+      <c r="E11" s="7" t="s">
+        <v>302</v>
+      </c>
       <c r="F11" s="2" t="s">
         <v>59</v>
       </c>
@@ -2253,7 +2467,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>41</v>
       </c>
@@ -2266,6 +2480,9 @@
       <c r="D12" s="7">
         <v>48101</v>
       </c>
+      <c r="E12" s="7" t="s">
+        <v>303</v>
+      </c>
       <c r="F12" s="2" t="s">
         <v>59</v>
       </c>
@@ -2279,7 +2496,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>41</v>
       </c>
@@ -2292,6 +2509,9 @@
       <c r="D13" s="7">
         <v>41802</v>
       </c>
+      <c r="E13" s="7" t="s">
+        <v>304</v>
+      </c>
       <c r="F13" s="2" t="s">
         <v>59</v>
       </c>
@@ -2303,7 +2523,7 @@
       </c>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>41</v>
       </c>
@@ -2316,6 +2536,9 @@
       <c r="D14" s="7" t="s">
         <v>3</v>
       </c>
+      <c r="E14" s="7" t="s">
+        <v>305</v>
+      </c>
       <c r="F14" s="2" t="s">
         <v>59</v>
       </c>
@@ -2332,7 +2555,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>41</v>
       </c>
@@ -2345,6 +2568,9 @@
       <c r="D15" s="7" t="s">
         <v>39</v>
       </c>
+      <c r="E15" s="7" t="s">
+        <v>306</v>
+      </c>
       <c r="F15" s="2" t="s">
         <v>59</v>
       </c>
@@ -2361,7 +2587,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>41</v>
       </c>
@@ -2374,6 +2600,9 @@
       <c r="D16" s="7" t="s">
         <v>5</v>
       </c>
+      <c r="E16" s="7" t="s">
+        <v>307</v>
+      </c>
       <c r="F16" s="2" t="s">
         <v>59</v>
       </c>
@@ -2390,7 +2619,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>41</v>
       </c>
@@ -2403,6 +2632,9 @@
       <c r="D17" s="7" t="s">
         <v>6</v>
       </c>
+      <c r="E17" s="7" t="s">
+        <v>307</v>
+      </c>
       <c r="F17" s="2" t="s">
         <v>59</v>
       </c>
@@ -2419,7 +2651,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>41</v>
       </c>
@@ -2432,6 +2664,9 @@
       <c r="D18" s="7" t="s">
         <v>8</v>
       </c>
+      <c r="E18" s="7" t="s">
+        <v>307</v>
+      </c>
       <c r="F18" s="2" t="s">
         <v>59</v>
       </c>
@@ -2448,7 +2683,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>41</v>
       </c>
@@ -2461,6 +2696,9 @@
       <c r="D19" s="7" t="s">
         <v>7</v>
       </c>
+      <c r="E19" s="7" t="s">
+        <v>307</v>
+      </c>
       <c r="F19" s="2" t="s">
         <v>59</v>
       </c>
@@ -2477,7 +2715,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>41</v>
       </c>
@@ -2490,6 +2728,9 @@
       <c r="D20" s="7">
         <v>413002</v>
       </c>
+      <c r="E20" s="7" t="s">
+        <v>308</v>
+      </c>
       <c r="F20" s="2" t="s">
         <v>59</v>
       </c>
@@ -2503,7 +2744,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>41</v>
       </c>
@@ -2516,6 +2757,9 @@
       <c r="D21" s="7">
         <v>413012</v>
       </c>
+      <c r="E21" s="7" t="s">
+        <v>301</v>
+      </c>
       <c r="F21" s="2" t="s">
         <v>59</v>
       </c>
@@ -2527,7 +2771,7 @@
       </c>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>41</v>
       </c>
@@ -2540,6 +2784,9 @@
       <c r="D22" s="7" t="s">
         <v>47</v>
       </c>
+      <c r="E22" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="F22" s="2" t="s">
         <v>59</v>
       </c>
@@ -2553,7 +2800,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="45">
+    <row r="23" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>41</v>
       </c>
@@ -2566,7 +2813,9 @@
       <c r="D23" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E23" s="8"/>
+      <c r="E23" s="8" t="s">
+        <v>309</v>
+      </c>
       <c r="F23" s="2" t="s">
         <v>59</v>
       </c>
@@ -2586,7 +2835,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>41</v>
       </c>
@@ -2599,6 +2848,9 @@
       <c r="D24" s="7" t="s">
         <v>51</v>
       </c>
+      <c r="E24" s="7" t="s">
+        <v>305</v>
+      </c>
       <c r="F24" s="2" t="s">
         <v>59</v>
       </c>
@@ -2615,7 +2867,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>41</v>
       </c>
@@ -2628,6 +2880,9 @@
       <c r="D25" s="7">
         <v>413007</v>
       </c>
+      <c r="E25" s="7" t="s">
+        <v>310</v>
+      </c>
       <c r="F25" s="2" t="s">
         <v>59</v>
       </c>
@@ -2639,7 +2894,7 @@
       </c>
       <c r="J25" s="4"/>
     </row>
-    <row r="26" spans="1:11" ht="30">
+    <row r="26" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>41</v>
       </c>
@@ -2652,6 +2907,9 @@
       <c r="D26" s="7" t="s">
         <v>58</v>
       </c>
+      <c r="E26" s="7" t="s">
+        <v>300</v>
+      </c>
       <c r="F26" s="2" t="s">
         <v>59</v>
       </c>
@@ -2666,7 +2924,7 @@
       </c>
       <c r="J26" s="4"/>
     </row>
-    <row r="27" spans="1:11" ht="30">
+    <row r="27" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>41</v>
       </c>
@@ -2679,6 +2937,9 @@
       <c r="D27" s="7" t="s">
         <v>57</v>
       </c>
+      <c r="E27" s="7" t="s">
+        <v>300</v>
+      </c>
       <c r="F27" s="2" t="s">
         <v>59</v>
       </c>
@@ -2693,7 +2954,7 @@
       </c>
       <c r="J27" s="4"/>
     </row>
-    <row r="28" spans="1:11" ht="30">
+    <row r="28" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>41</v>
       </c>
@@ -2706,7 +2967,9 @@
       <c r="D28" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E28" s="8"/>
+      <c r="E28" s="8" t="s">
+        <v>297</v>
+      </c>
       <c r="F28" s="2" t="s">
         <v>59</v>
       </c>
@@ -2723,7 +2986,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>41</v>
       </c>
@@ -2736,6 +2999,9 @@
       <c r="D29" s="7" t="s">
         <v>95</v>
       </c>
+      <c r="E29" s="7" t="s">
+        <v>311</v>
+      </c>
       <c r="F29" s="2" t="s">
         <v>59</v>
       </c>
@@ -2755,7 +3021,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="30">
+    <row r="30" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>41</v>
       </c>
@@ -2768,6 +3034,9 @@
       <c r="D30" s="7" t="s">
         <v>94</v>
       </c>
+      <c r="E30" s="7" t="s">
+        <v>312</v>
+      </c>
       <c r="F30" s="2" t="s">
         <v>59</v>
       </c>
@@ -2787,7 +3056,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="30">
+    <row r="31" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>41</v>
       </c>
@@ -2800,6 +3069,9 @@
       <c r="D31" s="7" t="s">
         <v>93</v>
       </c>
+      <c r="E31" s="7" t="s">
+        <v>312</v>
+      </c>
       <c r="F31" s="2" t="s">
         <v>59</v>
       </c>
@@ -2819,7 +3091,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="30">
+    <row r="32" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>41</v>
       </c>
@@ -2832,6 +3104,9 @@
       <c r="D32" s="7" t="s">
         <v>92</v>
       </c>
+      <c r="E32" s="7" t="s">
+        <v>309</v>
+      </c>
       <c r="F32" s="2" t="s">
         <v>59</v>
       </c>
@@ -2851,7 +3126,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>41</v>
       </c>
@@ -2864,6 +3139,9 @@
       <c r="D33" s="7" t="s">
         <v>91</v>
       </c>
+      <c r="E33" s="7" t="s">
+        <v>313</v>
+      </c>
       <c r="F33" s="2" t="s">
         <v>59</v>
       </c>
@@ -2883,7 +3161,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="30">
+    <row r="34" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>41</v>
       </c>
@@ -2896,6 +3174,9 @@
       <c r="D34" s="7" t="s">
         <v>90</v>
       </c>
+      <c r="E34" s="7" t="s">
+        <v>312</v>
+      </c>
       <c r="F34" s="2" t="s">
         <v>59</v>
       </c>
@@ -2915,7 +3196,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="30">
+    <row r="35" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>41</v>
       </c>
@@ -2928,6 +3209,9 @@
       <c r="D35" s="7" t="s">
         <v>89</v>
       </c>
+      <c r="E35" s="7" t="s">
+        <v>312</v>
+      </c>
       <c r="F35" s="2" t="s">
         <v>59</v>
       </c>
@@ -2947,7 +3231,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="30">
+    <row r="36" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>41</v>
       </c>
@@ -2960,6 +3244,9 @@
       <c r="D36" s="7">
         <v>45801</v>
       </c>
+      <c r="E36" s="7" t="s">
+        <v>314</v>
+      </c>
       <c r="F36" s="2" t="s">
         <v>59</v>
       </c>
@@ -2973,7 +3260,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>41</v>
       </c>
@@ -2986,6 +3273,9 @@
       <c r="D37" s="7" t="s">
         <v>88</v>
       </c>
+      <c r="E37" s="7" t="s">
+        <v>307</v>
+      </c>
       <c r="F37" s="2" t="s">
         <v>59</v>
       </c>
@@ -3002,7 +3292,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>41</v>
       </c>
@@ -3015,6 +3305,9 @@
       <c r="D38" s="7" t="s">
         <v>87</v>
       </c>
+      <c r="E38" s="7" t="s">
+        <v>307</v>
+      </c>
       <c r="F38" s="2" t="s">
         <v>59</v>
       </c>
@@ -3031,7 +3324,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="30">
+    <row r="39" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>41</v>
       </c>
@@ -3044,7 +3337,9 @@
       <c r="D39" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="E39" s="8"/>
+      <c r="E39" s="8" t="s">
+        <v>312</v>
+      </c>
       <c r="F39" s="2" t="s">
         <v>59</v>
       </c>
@@ -3064,7 +3359,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>41</v>
       </c>
@@ -3077,6 +3372,9 @@
       <c r="D40" s="7" t="s">
         <v>99</v>
       </c>
+      <c r="E40" s="7" t="s">
+        <v>315</v>
+      </c>
       <c r="F40" s="2" t="s">
         <v>59</v>
       </c>
@@ -3096,7 +3394,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>41</v>
       </c>
@@ -3109,6 +3407,9 @@
       <c r="D41" s="7" t="s">
         <v>100</v>
       </c>
+      <c r="E41" s="7" t="s">
+        <v>306</v>
+      </c>
       <c r="F41" s="2" t="s">
         <v>59</v>
       </c>
@@ -3125,7 +3426,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>41</v>
       </c>
@@ -3138,6 +3439,9 @@
       <c r="D42" s="7">
         <v>44301</v>
       </c>
+      <c r="E42" s="7" t="s">
+        <v>316</v>
+      </c>
       <c r="F42" s="2" t="s">
         <v>59</v>
       </c>
@@ -3151,7 +3455,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="30">
+    <row r="43" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>41</v>
       </c>
@@ -3164,6 +3468,9 @@
       <c r="D43" s="7">
         <v>48201</v>
       </c>
+      <c r="E43" s="7" t="s">
+        <v>317</v>
+      </c>
       <c r="F43" s="2" t="s">
         <v>59</v>
       </c>
@@ -3174,7 +3481,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>41</v>
       </c>
@@ -3187,6 +3494,9 @@
       <c r="D44" s="7">
         <v>48103</v>
       </c>
+      <c r="E44" s="7" t="s">
+        <v>303</v>
+      </c>
       <c r="F44" s="2" t="s">
         <v>59</v>
       </c>
@@ -3200,7 +3510,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>41</v>
       </c>
@@ -3213,6 +3523,9 @@
       <c r="D45" s="7" t="s">
         <v>114</v>
       </c>
+      <c r="E45" s="7" t="s">
+        <v>300</v>
+      </c>
       <c r="F45" s="2" t="s">
         <v>59</v>
       </c>
@@ -3226,7 +3539,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>41</v>
       </c>
@@ -3239,6 +3552,9 @@
       <c r="D46" s="7" t="s">
         <v>113</v>
       </c>
+      <c r="E46" s="7" t="s">
+        <v>300</v>
+      </c>
       <c r="F46" s="2" t="s">
         <v>59</v>
       </c>
@@ -3252,7 +3568,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>41</v>
       </c>
@@ -3265,6 +3581,9 @@
       <c r="D47" s="7">
         <v>45601</v>
       </c>
+      <c r="E47" s="7" t="s">
+        <v>351</v>
+      </c>
       <c r="F47" s="2" t="s">
         <v>59</v>
       </c>
@@ -3278,7 +3597,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>41</v>
       </c>
@@ -3291,6 +3610,9 @@
       <c r="D48" s="7" t="s">
         <v>112</v>
       </c>
+      <c r="E48" s="7" t="s">
+        <v>319</v>
+      </c>
       <c r="F48" s="2" t="s">
         <v>59</v>
       </c>
@@ -3301,7 +3623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="30">
+    <row r="49" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>41</v>
       </c>
@@ -3314,6 +3636,9 @@
       <c r="D49" s="7" t="s">
         <v>111</v>
       </c>
+      <c r="E49" s="7" t="s">
+        <v>320</v>
+      </c>
       <c r="F49" s="2" t="s">
         <v>59</v>
       </c>
@@ -3327,7 +3652,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="30">
+    <row r="50" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>41</v>
       </c>
@@ -3340,6 +3665,9 @@
       <c r="D50" s="7" t="s">
         <v>110</v>
       </c>
+      <c r="E50" s="7" t="s">
+        <v>320</v>
+      </c>
       <c r="F50" s="2" t="s">
         <v>59</v>
       </c>
@@ -3353,7 +3681,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>41</v>
       </c>
@@ -3366,6 +3694,9 @@
       <c r="D51" s="7" t="s">
         <v>118</v>
       </c>
+      <c r="E51" s="7" t="s">
+        <v>321</v>
+      </c>
       <c r="F51" s="2" t="s">
         <v>59</v>
       </c>
@@ -3376,7 +3707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="30">
+    <row r="52" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>41</v>
       </c>
@@ -3389,6 +3720,9 @@
       <c r="D52" s="7">
         <v>46851</v>
       </c>
+      <c r="E52" s="7" t="s">
+        <v>322</v>
+      </c>
       <c r="F52" s="2" t="s">
         <v>59</v>
       </c>
@@ -3399,7 +3733,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>41</v>
       </c>
@@ -3412,6 +3746,9 @@
       <c r="D53" s="7">
         <v>413008</v>
       </c>
+      <c r="E53" s="7" t="s">
+        <v>323</v>
+      </c>
       <c r="F53" s="2" t="s">
         <v>59</v>
       </c>
@@ -3422,7 +3759,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>41</v>
       </c>
@@ -3435,6 +3772,9 @@
       <c r="D54" s="7" t="s">
         <v>130</v>
       </c>
+      <c r="E54" s="7" t="s">
+        <v>321</v>
+      </c>
       <c r="F54" s="2" t="s">
         <v>59</v>
       </c>
@@ -3445,7 +3785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>41</v>
       </c>
@@ -3458,6 +3798,9 @@
       <c r="D55" s="7" t="s">
         <v>131</v>
       </c>
+      <c r="E55" s="7" t="s">
+        <v>324</v>
+      </c>
       <c r="F55" s="2" t="s">
         <v>59</v>
       </c>
@@ -3474,7 +3817,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>41</v>
       </c>
@@ -3487,6 +3830,9 @@
       <c r="D56" s="7" t="s">
         <v>132</v>
       </c>
+      <c r="E56" s="7" t="s">
+        <v>324</v>
+      </c>
       <c r="F56" s="2" t="s">
         <v>59</v>
       </c>
@@ -3503,7 +3849,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>41</v>
       </c>
@@ -3516,6 +3862,9 @@
       <c r="D57" s="7" t="s">
         <v>133</v>
       </c>
+      <c r="E57" s="7" t="s">
+        <v>324</v>
+      </c>
       <c r="F57" s="2" t="s">
         <v>59</v>
       </c>
@@ -3532,7 +3881,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>41</v>
       </c>
@@ -3545,6 +3894,9 @@
       <c r="D58" s="7" t="s">
         <v>134</v>
       </c>
+      <c r="E58" s="7" t="s">
+        <v>324</v>
+      </c>
       <c r="F58" s="2" t="s">
         <v>59</v>
       </c>
@@ -3561,7 +3913,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>41</v>
       </c>
@@ -3574,6 +3926,9 @@
       <c r="D59" s="7" t="s">
         <v>135</v>
       </c>
+      <c r="E59" s="7" t="s">
+        <v>320</v>
+      </c>
       <c r="F59" s="2" t="s">
         <v>59</v>
       </c>
@@ -3587,7 +3942,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>41</v>
       </c>
@@ -3600,6 +3955,9 @@
       <c r="D60" s="7" t="s">
         <v>136</v>
       </c>
+      <c r="E60" s="7" t="s">
+        <v>320</v>
+      </c>
       <c r="F60" s="2" t="s">
         <v>59</v>
       </c>
@@ -3613,7 +3971,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>41</v>
       </c>
@@ -3626,6 +3984,9 @@
       <c r="D61" s="7">
         <v>46804</v>
       </c>
+      <c r="E61" s="7" t="s">
+        <v>320</v>
+      </c>
       <c r="F61" s="2" t="s">
         <v>59</v>
       </c>
@@ -3636,7 +3997,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>41</v>
       </c>
@@ -3649,6 +4010,9 @@
       <c r="D62" s="7">
         <v>45501</v>
       </c>
+      <c r="E62" s="7" t="s">
+        <v>320</v>
+      </c>
       <c r="F62" s="2" t="s">
         <v>59</v>
       </c>
@@ -3662,7 +4026,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>41</v>
       </c>
@@ -3675,6 +4039,9 @@
       <c r="D63" s="7" t="s">
         <v>137</v>
       </c>
+      <c r="E63" s="7" t="s">
+        <v>325</v>
+      </c>
       <c r="F63" s="2" t="s">
         <v>59</v>
       </c>
@@ -3685,7 +4052,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>41</v>
       </c>
@@ -3698,6 +4065,9 @@
       <c r="D64" s="7">
         <v>47602</v>
       </c>
+      <c r="E64" s="7" t="s">
+        <v>326</v>
+      </c>
       <c r="F64" s="2" t="s">
         <v>59</v>
       </c>
@@ -3708,7 +4078,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>41</v>
       </c>
@@ -3721,6 +4091,9 @@
       <c r="D65" s="7">
         <v>46852</v>
       </c>
+      <c r="E65" s="7" t="s">
+        <v>322</v>
+      </c>
       <c r="F65" s="2" t="s">
         <v>59</v>
       </c>
@@ -3731,7 +4104,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>41</v>
       </c>
@@ -3744,6 +4117,9 @@
       <c r="D66" s="7">
         <v>46854</v>
       </c>
+      <c r="E66" s="7" t="s">
+        <v>322</v>
+      </c>
       <c r="F66" s="2" t="s">
         <v>59</v>
       </c>
@@ -3754,7 +4130,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>41</v>
       </c>
@@ -3767,6 +4143,9 @@
       <c r="D67" s="7" t="s">
         <v>138</v>
       </c>
+      <c r="E67" s="7" t="s">
+        <v>327</v>
+      </c>
       <c r="F67" s="2" t="s">
         <v>59</v>
       </c>
@@ -3783,7 +4162,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>41</v>
       </c>
@@ -3796,6 +4175,9 @@
       <c r="D68" s="7" t="s">
         <v>139</v>
       </c>
+      <c r="E68" s="7" t="s">
+        <v>327</v>
+      </c>
       <c r="F68" s="2" t="s">
         <v>59</v>
       </c>
@@ -3812,7 +4194,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>41</v>
       </c>
@@ -3825,6 +4207,9 @@
       <c r="D69" s="7" t="s">
         <v>140</v>
       </c>
+      <c r="E69" s="7" t="s">
+        <v>328</v>
+      </c>
       <c r="F69" s="2" t="s">
         <v>59</v>
       </c>
@@ -3838,7 +4223,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>41</v>
       </c>
@@ -3851,6 +4236,9 @@
       <c r="D70" s="7" t="s">
         <v>141</v>
       </c>
+      <c r="E70" s="7" t="s">
+        <v>328</v>
+      </c>
       <c r="F70" s="2" t="s">
         <v>59</v>
       </c>
@@ -3864,7 +4252,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>41</v>
       </c>
@@ -3877,6 +4265,9 @@
       <c r="D71" s="7">
         <v>45551</v>
       </c>
+      <c r="E71" s="7" t="s">
+        <v>329</v>
+      </c>
       <c r="F71" s="2" t="s">
         <v>59</v>
       </c>
@@ -3890,7 +4281,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>41</v>
       </c>
@@ -3903,6 +4294,9 @@
       <c r="D72" s="7">
         <v>47601</v>
       </c>
+      <c r="E72" s="7" t="s">
+        <v>326</v>
+      </c>
       <c r="F72" s="2" t="s">
         <v>59</v>
       </c>
@@ -3913,7 +4307,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>41</v>
       </c>
@@ -3926,6 +4320,9 @@
       <c r="D73" s="7" t="s">
         <v>156</v>
       </c>
+      <c r="E73" s="7" t="s">
+        <v>330</v>
+      </c>
       <c r="F73" s="2" t="s">
         <v>59</v>
       </c>
@@ -3936,7 +4333,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="30">
+    <row r="74" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>41</v>
       </c>
@@ -3949,6 +4346,9 @@
       <c r="D74" s="7">
         <v>48203</v>
       </c>
+      <c r="E74" s="7" t="s">
+        <v>317</v>
+      </c>
       <c r="F74" s="2" t="s">
         <v>59</v>
       </c>
@@ -3959,7 +4359,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="30">
+    <row r="75" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>41</v>
       </c>
@@ -3972,6 +4372,9 @@
       <c r="D75" s="7" t="s">
         <v>157</v>
       </c>
+      <c r="E75" s="7" t="s">
+        <v>325</v>
+      </c>
       <c r="F75" s="2" t="s">
         <v>59</v>
       </c>
@@ -3982,7 +4385,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>41</v>
       </c>
@@ -3995,6 +4398,9 @@
       <c r="D76" s="7">
         <v>413009</v>
       </c>
+      <c r="E76" s="7" t="s">
+        <v>331</v>
+      </c>
       <c r="F76" s="2" t="s">
         <v>59</v>
       </c>
@@ -4008,7 +4414,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>41</v>
       </c>
@@ -4021,6 +4427,9 @@
       <c r="D77" s="7" t="s">
         <v>173</v>
       </c>
+      <c r="E77" s="7" t="s">
+        <v>332</v>
+      </c>
       <c r="F77" s="2" t="s">
         <v>59</v>
       </c>
@@ -4031,7 +4440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>41</v>
       </c>
@@ -4044,6 +4453,9 @@
       <c r="D78" s="7" t="s">
         <v>172</v>
       </c>
+      <c r="E78" s="7" t="s">
+        <v>332</v>
+      </c>
       <c r="F78" s="2" t="s">
         <v>59</v>
       </c>
@@ -4054,7 +4466,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>41</v>
       </c>
@@ -4067,6 +4479,9 @@
       <c r="D79" s="7">
         <v>413009</v>
       </c>
+      <c r="E79" s="7" t="s">
+        <v>331</v>
+      </c>
       <c r="F79" s="2" t="s">
         <v>59</v>
       </c>
@@ -4080,7 +4495,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>41</v>
       </c>
@@ -4093,7 +4508,9 @@
       <c r="D80" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="E80" s="8"/>
+      <c r="E80" s="8" t="s">
+        <v>332</v>
+      </c>
       <c r="F80" s="2" t="s">
         <v>59</v>
       </c>
@@ -4104,7 +4521,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="30">
+    <row r="81" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>41</v>
       </c>
@@ -4117,6 +4534,9 @@
       <c r="D81" s="7" t="s">
         <v>174</v>
       </c>
+      <c r="E81" s="7" t="s">
+        <v>333</v>
+      </c>
       <c r="F81" s="2" t="s">
         <v>59</v>
       </c>
@@ -4130,7 +4550,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="30">
+    <row r="82" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>41</v>
       </c>
@@ -4156,7 +4576,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="30">
+    <row r="83" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>41</v>
       </c>
@@ -4169,6 +4589,9 @@
       <c r="D83" s="7" t="s">
         <v>175</v>
       </c>
+      <c r="E83" s="7" t="s">
+        <v>334</v>
+      </c>
       <c r="F83" s="2" t="s">
         <v>59</v>
       </c>
@@ -4182,7 +4605,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="45">
+    <row r="84" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>41</v>
       </c>
@@ -4195,6 +4618,9 @@
       <c r="D84" s="7">
         <v>45204</v>
       </c>
+      <c r="E84" s="7" t="s">
+        <v>334</v>
+      </c>
       <c r="F84" s="2" t="s">
         <v>59</v>
       </c>
@@ -4208,7 +4634,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="45">
+    <row r="85" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>41</v>
       </c>
@@ -4221,6 +4647,9 @@
       <c r="D85" s="7" t="s">
         <v>176</v>
       </c>
+      <c r="E85" s="7" t="s">
+        <v>334</v>
+      </c>
       <c r="F85" s="2" t="s">
         <v>59</v>
       </c>
@@ -4234,7 +4663,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>41</v>
       </c>
@@ -4247,6 +4676,9 @@
       <c r="D86" s="7">
         <v>41601</v>
       </c>
+      <c r="E86" s="7" t="s">
+        <v>335</v>
+      </c>
       <c r="F86" s="2" t="s">
         <v>59</v>
       </c>
@@ -4257,7 +4689,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="30">
+    <row r="87" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>41</v>
       </c>
@@ -4270,6 +4702,9 @@
       <c r="D87" s="7">
         <v>46751</v>
       </c>
+      <c r="E87" s="7" t="s">
+        <v>336</v>
+      </c>
       <c r="F87" s="2" t="s">
         <v>59</v>
       </c>
@@ -4280,7 +4715,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>41</v>
       </c>
@@ -4293,6 +4728,9 @@
       <c r="D88" s="7" t="s">
         <v>177</v>
       </c>
+      <c r="E88" s="7" t="s">
+        <v>337</v>
+      </c>
       <c r="F88" s="2" t="s">
         <v>59</v>
       </c>
@@ -4309,7 +4747,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>41</v>
       </c>
@@ -4322,6 +4760,9 @@
       <c r="D89" s="7" t="s">
         <v>178</v>
       </c>
+      <c r="E89" s="7" t="s">
+        <v>337</v>
+      </c>
       <c r="F89" s="2" t="s">
         <v>59</v>
       </c>
@@ -4338,7 +4779,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>41</v>
       </c>
@@ -4351,6 +4792,9 @@
       <c r="D90" s="7" t="s">
         <v>179</v>
       </c>
+      <c r="E90" s="7" t="s">
+        <v>337</v>
+      </c>
       <c r="F90" s="2" t="s">
         <v>59</v>
       </c>
@@ -4367,7 +4811,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>41</v>
       </c>
@@ -4380,6 +4824,9 @@
       <c r="D91" s="7" t="s">
         <v>180</v>
       </c>
+      <c r="E91" s="7" t="s">
+        <v>337</v>
+      </c>
       <c r="F91" s="2" t="s">
         <v>59</v>
       </c>
@@ -4396,7 +4843,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="30">
+    <row r="92" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>41</v>
       </c>
@@ -4409,6 +4856,9 @@
       <c r="D92" s="7" t="s">
         <v>181</v>
       </c>
+      <c r="E92" s="7" t="s">
+        <v>338</v>
+      </c>
       <c r="F92" s="2" t="s">
         <v>59</v>
       </c>
@@ -4422,7 +4872,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>41</v>
       </c>
@@ -4435,6 +4885,9 @@
       <c r="D93" s="7" t="s">
         <v>182</v>
       </c>
+      <c r="E93" s="7" t="s">
+        <v>338</v>
+      </c>
       <c r="F93" s="2" t="s">
         <v>59</v>
       </c>
@@ -4448,7 +4901,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="45">
+    <row r="94" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>41</v>
       </c>
@@ -4461,7 +4914,9 @@
       <c r="D94" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="E94" s="8"/>
+      <c r="E94" s="8" t="s">
+        <v>311</v>
+      </c>
       <c r="F94" s="2" t="s">
         <v>59</v>
       </c>
@@ -4481,7 +4936,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="45">
+    <row r="95" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>41</v>
       </c>
@@ -4494,7 +4949,9 @@
       <c r="D95" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="E95" s="8"/>
+      <c r="E95" s="8" t="s">
+        <v>312</v>
+      </c>
       <c r="F95" s="2" t="s">
         <v>59</v>
       </c>
@@ -4514,7 +4971,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="30">
+    <row r="96" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>41</v>
       </c>
@@ -4527,6 +4984,9 @@
       <c r="D96" s="7" t="s">
         <v>185</v>
       </c>
+      <c r="E96" s="8" t="s">
+        <v>312</v>
+      </c>
       <c r="F96" s="2" t="s">
         <v>59</v>
       </c>
@@ -4546,7 +5006,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>41</v>
       </c>
@@ -4559,6 +5019,9 @@
       <c r="D97" s="7">
         <v>4983</v>
       </c>
+      <c r="E97" s="7" t="s">
+        <v>196</v>
+      </c>
       <c r="F97" s="2" t="s">
         <v>59</v>
       </c>
@@ -4572,7 +5035,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>41</v>
       </c>
@@ -4585,6 +5048,9 @@
       <c r="D98" s="7">
         <v>4986</v>
       </c>
+      <c r="E98" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="F98" s="2" t="s">
         <v>59</v>
       </c>
@@ -4598,7 +5064,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>41</v>
       </c>
@@ -4611,6 +5077,9 @@
       <c r="D99" s="7" t="s">
         <v>206</v>
       </c>
+      <c r="E99" s="7" t="s">
+        <v>339</v>
+      </c>
       <c r="F99" s="2" t="s">
         <v>59</v>
       </c>
@@ -4627,7 +5096,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>41</v>
       </c>
@@ -4640,6 +5109,9 @@
       <c r="D100" s="7" t="s">
         <v>207</v>
       </c>
+      <c r="E100" s="7" t="s">
+        <v>340</v>
+      </c>
       <c r="F100" s="2" t="s">
         <v>59</v>
       </c>
@@ -4653,7 +5125,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>41</v>
       </c>
@@ -4666,6 +5138,9 @@
       <c r="D101" s="7" t="s">
         <v>208</v>
       </c>
+      <c r="E101" s="7" t="s">
+        <v>340</v>
+      </c>
       <c r="F101" s="2" t="s">
         <v>59</v>
       </c>
@@ -4679,7 +5154,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="102" spans="1:11">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>41</v>
       </c>
@@ -4692,6 +5167,9 @@
       <c r="D102" s="7" t="s">
         <v>209</v>
       </c>
+      <c r="E102" s="7" t="s">
+        <v>340</v>
+      </c>
       <c r="F102" s="2" t="s">
         <v>59</v>
       </c>
@@ -4705,7 +5183,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>41</v>
       </c>
@@ -4718,6 +5196,9 @@
       <c r="D103" s="7" t="s">
         <v>210</v>
       </c>
+      <c r="E103" s="7" t="s">
+        <v>340</v>
+      </c>
       <c r="F103" s="2" t="s">
         <v>59</v>
       </c>
@@ -4731,7 +5212,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="104" spans="1:11">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>41</v>
       </c>
@@ -4744,6 +5225,9 @@
       <c r="D104" s="7">
         <v>4988</v>
       </c>
+      <c r="E104" s="7" t="s">
+        <v>224</v>
+      </c>
       <c r="F104" s="2" t="s">
         <v>59</v>
       </c>
@@ -4757,7 +5241,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>41</v>
       </c>
@@ -4770,6 +5254,9 @@
       <c r="D105" s="7" t="s">
         <v>211</v>
       </c>
+      <c r="E105" s="7" t="s">
+        <v>313</v>
+      </c>
       <c r="F105" s="2" t="s">
         <v>59</v>
       </c>
@@ -4789,7 +5276,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>41</v>
       </c>
@@ -4802,6 +5289,9 @@
       <c r="D106" s="7" t="s">
         <v>212</v>
       </c>
+      <c r="E106" s="7" t="s">
+        <v>312</v>
+      </c>
       <c r="F106" s="2" t="s">
         <v>59</v>
       </c>
@@ -4821,7 +5311,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>41</v>
       </c>
@@ -4834,6 +5324,9 @@
       <c r="D107" s="7" t="s">
         <v>213</v>
       </c>
+      <c r="E107" s="7" t="s">
+        <v>337</v>
+      </c>
       <c r="F107" s="2" t="s">
         <v>59</v>
       </c>
@@ -4850,7 +5343,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="108" spans="1:11">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>41</v>
       </c>
@@ -4863,6 +5356,9 @@
       <c r="D108" s="7" t="s">
         <v>214</v>
       </c>
+      <c r="E108" s="7" t="s">
+        <v>337</v>
+      </c>
       <c r="F108" s="2" t="s">
         <v>59</v>
       </c>
@@ -4879,7 +5375,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>41</v>
       </c>
@@ -4892,6 +5388,9 @@
       <c r="D109" s="7">
         <v>8061</v>
       </c>
+      <c r="E109" s="7" t="s">
+        <v>338</v>
+      </c>
       <c r="F109" s="2" t="s">
         <v>59</v>
       </c>
@@ -4905,7 +5404,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>41</v>
       </c>
@@ -4918,6 +5417,9 @@
       <c r="D110" s="7" t="s">
         <v>215</v>
       </c>
+      <c r="E110" s="7" t="s">
+        <v>338</v>
+      </c>
       <c r="F110" s="2" t="s">
         <v>59</v>
       </c>
@@ -4931,7 +5433,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="45">
+    <row r="111" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>41</v>
       </c>
@@ -4944,7 +5446,9 @@
       <c r="D111" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="E111" s="8"/>
+      <c r="E111" s="7" t="s">
+        <v>338</v>
+      </c>
       <c r="F111" s="2" t="s">
         <v>59</v>
       </c>
@@ -4958,7 +5462,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>41</v>
       </c>
@@ -4971,6 +5475,9 @@
       <c r="D112" s="7" t="s">
         <v>217</v>
       </c>
+      <c r="E112" s="7" t="s">
+        <v>333</v>
+      </c>
       <c r="F112" s="2" t="s">
         <v>59</v>
       </c>
@@ -4984,7 +5491,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>41</v>
       </c>
@@ -4997,6 +5504,9 @@
       <c r="D113" s="7">
         <v>41602</v>
       </c>
+      <c r="E113" s="7" t="s">
+        <v>335</v>
+      </c>
       <c r="F113" s="2" t="s">
         <v>59</v>
       </c>
@@ -5007,7 +5517,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>41</v>
       </c>
@@ -5020,6 +5530,9 @@
       <c r="D114" s="7">
         <v>46752</v>
       </c>
+      <c r="E114" s="7" t="s">
+        <v>336</v>
+      </c>
       <c r="F114" s="2" t="s">
         <v>59</v>
       </c>
@@ -5030,7 +5543,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>41</v>
       </c>
@@ -5043,6 +5556,9 @@
       <c r="D115" s="7">
         <v>46754</v>
       </c>
+      <c r="E115" s="7" t="s">
+        <v>336</v>
+      </c>
       <c r="F115" s="2" t="s">
         <v>59</v>
       </c>
@@ -5053,7 +5569,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>41</v>
       </c>
@@ -5066,6 +5582,9 @@
       <c r="D116" s="7" t="s">
         <v>218</v>
       </c>
+      <c r="E116" s="7" t="s">
+        <v>341</v>
+      </c>
       <c r="F116" s="2" t="s">
         <v>59</v>
       </c>
@@ -5079,7 +5598,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>41</v>
       </c>
@@ -5092,6 +5611,9 @@
       <c r="D117" s="7" t="s">
         <v>219</v>
       </c>
+      <c r="E117" s="7" t="s">
+        <v>339</v>
+      </c>
       <c r="F117" s="2" t="s">
         <v>59</v>
       </c>
@@ -5108,7 +5630,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>41</v>
       </c>
@@ -5121,6 +5643,9 @@
       <c r="D118" s="7">
         <v>4982</v>
       </c>
+      <c r="E118" s="2" t="s">
+        <v>237</v>
+      </c>
       <c r="F118" s="2" t="s">
         <v>59</v>
       </c>
@@ -5134,7 +5659,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>41</v>
       </c>
@@ -5147,6 +5672,9 @@
       <c r="D119" s="7">
         <v>4985</v>
       </c>
+      <c r="E119" s="2" t="s">
+        <v>238</v>
+      </c>
       <c r="F119" s="2" t="s">
         <v>59</v>
       </c>
@@ -5160,7 +5688,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>41</v>
       </c>
@@ -5173,6 +5701,9 @@
       <c r="D120" s="7" t="s">
         <v>220</v>
       </c>
+      <c r="E120" s="7" t="s">
+        <v>342</v>
+      </c>
       <c r="F120" s="2" t="s">
         <v>59</v>
       </c>
@@ -5183,7 +5714,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>41</v>
       </c>
@@ -5196,6 +5727,9 @@
       <c r="D121" s="7" t="s">
         <v>243</v>
       </c>
+      <c r="E121" s="7" t="s">
+        <v>298</v>
+      </c>
       <c r="F121" s="2" t="s">
         <v>59</v>
       </c>
@@ -5209,7 +5743,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>41</v>
       </c>
@@ -5222,6 +5756,9 @@
       <c r="D122" s="7" t="s">
         <v>244</v>
       </c>
+      <c r="E122" s="7" t="s">
+        <v>298</v>
+      </c>
       <c r="F122" s="2" t="s">
         <v>59</v>
       </c>
@@ -5235,7 +5772,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="123" spans="1:11">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>41</v>
       </c>
@@ -5248,6 +5785,9 @@
       <c r="D123" s="7">
         <v>41901</v>
       </c>
+      <c r="E123" s="7" t="s">
+        <v>343</v>
+      </c>
       <c r="F123" s="2" t="s">
         <v>59</v>
       </c>
@@ -5258,7 +5798,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="124" spans="1:11">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>41</v>
       </c>
@@ -5271,6 +5811,9 @@
       <c r="D124" s="7" t="s">
         <v>245</v>
       </c>
+      <c r="E124" s="7" t="s">
+        <v>344</v>
+      </c>
       <c r="F124" s="2" t="s">
         <v>59</v>
       </c>
@@ -5287,7 +5830,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="125" spans="1:11">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>41</v>
       </c>
@@ -5300,6 +5843,9 @@
       <c r="D125" s="7" t="s">
         <v>246</v>
       </c>
+      <c r="E125" s="7" t="s">
+        <v>345</v>
+      </c>
       <c r="F125" s="2" t="s">
         <v>59</v>
       </c>
@@ -5313,7 +5859,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="126" spans="1:11">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>41</v>
       </c>
@@ -5326,6 +5872,9 @@
       <c r="D126" s="7" t="s">
         <v>247</v>
       </c>
+      <c r="E126" s="7" t="s">
+        <v>345</v>
+      </c>
       <c r="F126" s="2" t="s">
         <v>59</v>
       </c>
@@ -5339,7 +5888,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="127" spans="1:11">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>41</v>
       </c>
@@ -5352,6 +5901,9 @@
       <c r="D127" s="7">
         <v>413001</v>
       </c>
+      <c r="E127" s="7" t="s">
+        <v>308</v>
+      </c>
       <c r="F127" s="2" t="s">
         <v>59</v>
       </c>
@@ -5365,7 +5917,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="128" spans="1:11">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>41</v>
       </c>
@@ -5378,6 +5930,9 @@
       <c r="D128" s="7">
         <v>413013</v>
       </c>
+      <c r="E128" s="7" t="s">
+        <v>308</v>
+      </c>
       <c r="F128" s="2" t="s">
         <v>59</v>
       </c>
@@ -5391,7 +5946,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="129" spans="1:11">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>41</v>
       </c>
@@ -5404,6 +5959,9 @@
       <c r="D129" s="7" t="s">
         <v>248</v>
       </c>
+      <c r="E129" s="7" t="s">
+        <v>346</v>
+      </c>
       <c r="F129" s="2" t="s">
         <v>59</v>
       </c>
@@ -5414,7 +5972,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="130" spans="1:11">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>41</v>
       </c>
@@ -5427,6 +5985,9 @@
       <c r="D130" s="7" t="s">
         <v>249</v>
       </c>
+      <c r="E130" s="7" t="s">
+        <v>346</v>
+      </c>
       <c r="F130" s="2" t="s">
         <v>59</v>
       </c>
@@ -5437,7 +5998,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="131" spans="1:11">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>41</v>
       </c>
@@ -5450,6 +6011,9 @@
       <c r="D131" s="7" t="s">
         <v>250</v>
       </c>
+      <c r="E131" s="7" t="s">
+        <v>346</v>
+      </c>
       <c r="F131" s="2" t="s">
         <v>59</v>
       </c>
@@ -5460,7 +6024,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="132" spans="1:11">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>41</v>
       </c>
@@ -5473,6 +6037,9 @@
       <c r="D132" s="7" t="s">
         <v>251</v>
       </c>
+      <c r="E132" s="7" t="s">
+        <v>346</v>
+      </c>
       <c r="F132" s="2" t="s">
         <v>59</v>
       </c>
@@ -5483,7 +6050,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="133" spans="1:11">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>41</v>
       </c>
@@ -5496,6 +6063,9 @@
       <c r="D133" s="7">
         <v>41801</v>
       </c>
+      <c r="E133" s="7" t="s">
+        <v>304</v>
+      </c>
       <c r="F133" s="2" t="s">
         <v>59</v>
       </c>
@@ -5506,7 +6076,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="134" spans="1:11" ht="30">
+    <row r="134" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>41</v>
       </c>
@@ -5519,6 +6089,9 @@
       <c r="D134" s="7" t="s">
         <v>252</v>
       </c>
+      <c r="E134" s="7" t="s">
+        <v>309</v>
+      </c>
       <c r="F134" s="2" t="s">
         <v>59</v>
       </c>
@@ -5535,7 +6108,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="135" spans="1:11">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>41</v>
       </c>
@@ -5548,6 +6121,9 @@
       <c r="D135" s="7">
         <v>4981</v>
       </c>
+      <c r="E135" s="2" t="s">
+        <v>269</v>
+      </c>
       <c r="F135" s="2" t="s">
         <v>59</v>
       </c>
@@ -5558,7 +6134,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="136" spans="1:11">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>41</v>
       </c>
@@ -5571,6 +6147,9 @@
       <c r="D136" s="7">
         <v>4984</v>
       </c>
+      <c r="E136" s="2" t="s">
+        <v>270</v>
+      </c>
       <c r="F136" s="2" t="s">
         <v>59</v>
       </c>
@@ -5581,7 +6160,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="137" spans="1:11" ht="30">
+    <row r="137" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>41</v>
       </c>
@@ -5594,6 +6173,9 @@
       <c r="D137" s="7" t="s">
         <v>253</v>
       </c>
+      <c r="E137" s="7" t="s">
+        <v>299</v>
+      </c>
       <c r="F137" s="2" t="s">
         <v>59</v>
       </c>
@@ -5610,7 +6192,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="138" spans="1:11" ht="30">
+    <row r="138" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>41</v>
       </c>
@@ -5623,6 +6205,9 @@
       <c r="D138" s="7" t="s">
         <v>254</v>
       </c>
+      <c r="E138" s="7" t="s">
+        <v>299</v>
+      </c>
       <c r="F138" s="2" t="s">
         <v>59</v>
       </c>
@@ -5639,7 +6224,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="139" spans="1:11" ht="30">
+    <row r="139" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>41</v>
       </c>
@@ -5652,6 +6237,9 @@
       <c r="D139" s="7">
         <v>48501</v>
       </c>
+      <c r="E139" s="7" t="s">
+        <v>302</v>
+      </c>
       <c r="F139" s="2" t="s">
         <v>59</v>
       </c>
@@ -5665,7 +6253,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="140" spans="1:11">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>41</v>
       </c>
@@ -5678,6 +6266,9 @@
       <c r="D140" s="7">
         <v>48401</v>
       </c>
+      <c r="E140" s="7" t="s">
+        <v>347</v>
+      </c>
       <c r="F140" s="2" t="s">
         <v>59</v>
       </c>
@@ -5688,7 +6279,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="141" spans="1:11">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>41</v>
       </c>
@@ -5701,6 +6292,9 @@
       <c r="D141" s="7" t="s">
         <v>255</v>
       </c>
+      <c r="E141" s="7" t="s">
+        <v>306</v>
+      </c>
       <c r="F141" s="2" t="s">
         <v>59</v>
       </c>
@@ -5717,7 +6311,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="142" spans="1:11" ht="30">
+    <row r="142" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>41</v>
       </c>
@@ -5730,6 +6324,9 @@
       <c r="D142" s="7" t="s">
         <v>256</v>
       </c>
+      <c r="E142" s="7" t="s">
+        <v>312</v>
+      </c>
       <c r="F142" s="2" t="s">
         <v>59</v>
       </c>
@@ -5749,7 +6346,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="143" spans="1:11" ht="30">
+    <row r="143" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>41</v>
       </c>
@@ -5762,6 +6359,9 @@
       <c r="D143" s="7" t="s">
         <v>257</v>
       </c>
+      <c r="E143" s="7" t="s">
+        <v>312</v>
+      </c>
       <c r="F143" s="2" t="s">
         <v>59</v>
       </c>
@@ -5781,7 +6381,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="144" spans="1:11">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>41</v>
       </c>
@@ -5794,6 +6394,9 @@
       <c r="D144" s="7" t="s">
         <v>258</v>
       </c>
+      <c r="E144" s="7" t="s">
+        <v>315</v>
+      </c>
       <c r="F144" s="2" t="s">
         <v>59</v>
       </c>
@@ -5813,7 +6416,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="145" spans="1:11">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>41</v>
       </c>
@@ -5826,6 +6429,9 @@
       <c r="D145" s="7" t="s">
         <v>280</v>
       </c>
+      <c r="E145" s="7" t="s">
+        <v>344</v>
+      </c>
       <c r="F145" s="2" t="s">
         <v>59</v>
       </c>
@@ -5842,7 +6448,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="146" spans="1:11" ht="30">
+    <row r="146" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>41</v>
       </c>
@@ -5855,6 +6461,9 @@
       <c r="D146" s="7">
         <v>45401</v>
       </c>
+      <c r="E146" s="8" t="s">
+        <v>350</v>
+      </c>
       <c r="F146" s="2" t="s">
         <v>59</v>
       </c>
@@ -5868,7 +6477,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="147" spans="1:11" ht="30">
+    <row r="147" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>41</v>
       </c>
@@ -5881,6 +6490,9 @@
       <c r="D147" s="7">
         <v>45651</v>
       </c>
+      <c r="E147" s="8" t="s">
+        <v>349</v>
+      </c>
       <c r="F147" s="2" t="s">
         <v>59</v>
       </c>
@@ -5894,7 +6506,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="148" spans="1:11" ht="30">
+    <row r="148" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>41</v>
       </c>
@@ -5907,6 +6519,9 @@
       <c r="D148" s="7">
         <v>45701</v>
       </c>
+      <c r="E148" s="8" t="s">
+        <v>348</v>
+      </c>
       <c r="F148" s="2" t="s">
         <v>59</v>
       </c>
@@ -5920,7 +6535,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="149" spans="1:11" ht="30">
+    <row r="149" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>41</v>
       </c>
@@ -5933,6 +6548,9 @@
       <c r="D149" s="7">
         <v>45751</v>
       </c>
+      <c r="E149" s="7" t="s">
+        <v>318</v>
+      </c>
       <c r="F149" s="2" t="s">
         <v>59</v>
       </c>
@@ -5943,7 +6561,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="150" spans="1:11">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>41</v>
       </c>
@@ -5956,6 +6574,9 @@
       <c r="D150" s="7">
         <v>48403</v>
       </c>
+      <c r="E150" s="7" t="s">
+        <v>347</v>
+      </c>
       <c r="F150" s="2" t="s">
         <v>59</v>
       </c>
@@ -5966,7 +6587,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="151" spans="1:11">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>41</v>
       </c>
@@ -5979,6 +6600,9 @@
       <c r="D151" s="7">
         <v>41902</v>
       </c>
+      <c r="E151" s="7" t="s">
+        <v>343</v>
+      </c>
       <c r="F151" s="2" t="s">
         <v>59</v>
       </c>
@@ -5990,7 +6614,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K151"/>
+  <autoFilter ref="A1:K151" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -6002,33 +6626,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>292</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>

--- a/sample-data/exams aqa 2018.xlsx
+++ b/sample-data/exams aqa 2018.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alic/workspace/examdb/sample-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8732828-8A12-0246-9A23-68B3A4B3F925}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8811E8CA-A064-0943-AA64-8722A688F11B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AQA 2018" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="352">
   <si>
     <t>History Paper 1 (new) (all options A to E)</t>
   </si>
@@ -2113,10 +2113,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F156" sqref="F156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2168,7 +2169,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>41</v>
       </c>
@@ -2200,7 +2201,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>41</v>
       </c>
@@ -2230,7 +2231,7 @@
       </c>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>41</v>
       </c>
@@ -2260,7 +2261,7 @@
       </c>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>41</v>
       </c>
@@ -2287,7 +2288,7 @@
       </c>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>41</v>
       </c>
@@ -2319,7 +2320,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>41</v>
       </c>
@@ -2351,7 +2352,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>41</v>
       </c>
@@ -2381,7 +2382,7 @@
       </c>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>41</v>
       </c>
@@ -2411,7 +2412,7 @@
       </c>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>41</v>
       </c>
@@ -2438,7 +2439,7 @@
       </c>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>41</v>
       </c>
@@ -2467,7 +2468,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>41</v>
       </c>
@@ -2496,7 +2497,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>41</v>
       </c>
@@ -2523,7 +2524,7 @@
       </c>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>41</v>
       </c>
@@ -2555,7 +2556,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>41</v>
       </c>
@@ -2587,7 +2588,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>41</v>
       </c>
@@ -2619,7 +2620,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>41</v>
       </c>
@@ -2651,7 +2652,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>41</v>
       </c>
@@ -2683,7 +2684,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>41</v>
       </c>
@@ -2715,7 +2716,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>41</v>
       </c>
@@ -2744,7 +2745,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>41</v>
       </c>
@@ -2771,7 +2772,7 @@
       </c>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>41</v>
       </c>
@@ -2800,7 +2801,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>41</v>
       </c>
@@ -2835,7 +2836,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>41</v>
       </c>
@@ -2867,7 +2868,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>41</v>
       </c>
@@ -2894,7 +2895,7 @@
       </c>
       <c r="J25" s="4"/>
     </row>
-    <row r="26" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>41</v>
       </c>
@@ -2924,7 +2925,7 @@
       </c>
       <c r="J26" s="4"/>
     </row>
-    <row r="27" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>41</v>
       </c>
@@ -2954,7 +2955,7 @@
       </c>
       <c r="J27" s="4"/>
     </row>
-    <row r="28" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>41</v>
       </c>
@@ -2986,7 +2987,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>41</v>
       </c>
@@ -3021,7 +3022,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>41</v>
       </c>
@@ -3056,7 +3057,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>41</v>
       </c>
@@ -3091,7 +3092,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>41</v>
       </c>
@@ -3126,7 +3127,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>41</v>
       </c>
@@ -3161,7 +3162,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>41</v>
       </c>
@@ -3196,7 +3197,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>41</v>
       </c>
@@ -3231,7 +3232,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>41</v>
       </c>
@@ -3260,7 +3261,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>41</v>
       </c>
@@ -3292,7 +3293,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>41</v>
       </c>
@@ -3324,7 +3325,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>41</v>
       </c>
@@ -3359,7 +3360,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>41</v>
       </c>
@@ -3394,7 +3395,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>41</v>
       </c>
@@ -3426,7 +3427,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>41</v>
       </c>
@@ -3455,7 +3456,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>41</v>
       </c>
@@ -3481,7 +3482,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>41</v>
       </c>
@@ -3510,7 +3511,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>41</v>
       </c>
@@ -3539,7 +3540,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>41</v>
       </c>
@@ -3568,7 +3569,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>41</v>
       </c>
@@ -3597,7 +3598,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>41</v>
       </c>
@@ -3623,7 +3624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>41</v>
       </c>
@@ -3652,7 +3653,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>41</v>
       </c>
@@ -3681,7 +3682,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>41</v>
       </c>
@@ -3707,7 +3708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>41</v>
       </c>
@@ -3733,7 +3734,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>41</v>
       </c>
@@ -3759,7 +3760,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>41</v>
       </c>
@@ -3785,7 +3786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>41</v>
       </c>
@@ -3817,7 +3818,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>41</v>
       </c>
@@ -3849,7 +3850,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>41</v>
       </c>
@@ -3881,7 +3882,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>41</v>
       </c>
@@ -3913,7 +3914,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>41</v>
       </c>
@@ -3942,7 +3943,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>41</v>
       </c>
@@ -3971,7 +3972,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>41</v>
       </c>
@@ -3997,7 +3998,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>41</v>
       </c>
@@ -4026,7 +4027,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>41</v>
       </c>
@@ -4052,7 +4053,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>41</v>
       </c>
@@ -4078,7 +4079,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>41</v>
       </c>
@@ -4104,7 +4105,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>41</v>
       </c>
@@ -4130,7 +4131,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>41</v>
       </c>
@@ -4162,7 +4163,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>41</v>
       </c>
@@ -4194,7 +4195,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>41</v>
       </c>
@@ -4223,7 +4224,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>41</v>
       </c>
@@ -4252,7 +4253,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>41</v>
       </c>
@@ -4281,7 +4282,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>41</v>
       </c>
@@ -4307,7 +4308,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>41</v>
       </c>
@@ -4333,7 +4334,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>41</v>
       </c>
@@ -4359,7 +4360,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>41</v>
       </c>
@@ -4385,7 +4386,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>41</v>
       </c>
@@ -4414,7 +4415,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>41</v>
       </c>
@@ -4440,7 +4441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>41</v>
       </c>
@@ -4466,7 +4467,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>41</v>
       </c>
@@ -4495,7 +4496,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>41</v>
       </c>
@@ -4521,7 +4522,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>41</v>
       </c>
@@ -4563,6 +4564,9 @@
       <c r="D82" s="7">
         <v>45201</v>
       </c>
+      <c r="E82" s="7" t="s">
+        <v>334</v>
+      </c>
       <c r="F82" s="2" t="s">
         <v>59</v>
       </c>
@@ -4576,7 +4580,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>41</v>
       </c>
@@ -4605,7 +4609,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>41</v>
       </c>
@@ -4634,7 +4638,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>41</v>
       </c>
@@ -4663,7 +4667,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>41</v>
       </c>
@@ -4689,7 +4693,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>41</v>
       </c>
@@ -4715,7 +4719,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>41</v>
       </c>
@@ -4747,7 +4751,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>41</v>
       </c>
@@ -4779,7 +4783,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>41</v>
       </c>
@@ -4811,7 +4815,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>41</v>
       </c>
@@ -4843,7 +4847,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>41</v>
       </c>
@@ -4872,7 +4876,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>41</v>
       </c>
@@ -4901,7 +4905,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>41</v>
       </c>
@@ -4936,7 +4940,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>41</v>
       </c>
@@ -4971,7 +4975,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>41</v>
       </c>
@@ -5006,7 +5010,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>41</v>
       </c>
@@ -5035,7 +5039,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>41</v>
       </c>
@@ -5064,7 +5068,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>41</v>
       </c>
@@ -5096,7 +5100,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>41</v>
       </c>
@@ -5125,7 +5129,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>41</v>
       </c>
@@ -5154,7 +5158,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>41</v>
       </c>
@@ -5183,7 +5187,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>41</v>
       </c>
@@ -5212,7 +5216,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>41</v>
       </c>
@@ -5241,7 +5245,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>41</v>
       </c>
@@ -5276,7 +5280,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>41</v>
       </c>
@@ -5311,7 +5315,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>41</v>
       </c>
@@ -5343,7 +5347,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>41</v>
       </c>
@@ -5375,7 +5379,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>41</v>
       </c>
@@ -5404,7 +5408,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>41</v>
       </c>
@@ -5433,7 +5437,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>41</v>
       </c>
@@ -5462,7 +5466,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>41</v>
       </c>
@@ -5491,7 +5495,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>41</v>
       </c>
@@ -5517,7 +5521,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>41</v>
       </c>
@@ -5543,7 +5547,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>41</v>
       </c>
@@ -5569,7 +5573,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>41</v>
       </c>
@@ -5598,7 +5602,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>41</v>
       </c>
@@ -5630,7 +5634,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>41</v>
       </c>
@@ -5659,7 +5663,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>41</v>
       </c>
@@ -5688,7 +5692,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>41</v>
       </c>
@@ -5714,7 +5718,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>41</v>
       </c>
@@ -5743,7 +5747,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>41</v>
       </c>
@@ -5772,7 +5776,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>41</v>
       </c>
@@ -5798,7 +5802,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>41</v>
       </c>
@@ -5830,7 +5834,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>41</v>
       </c>
@@ -5859,7 +5863,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>41</v>
       </c>
@@ -5888,7 +5892,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>41</v>
       </c>
@@ -5917,7 +5921,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>41</v>
       </c>
@@ -5946,7 +5950,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>41</v>
       </c>
@@ -5972,7 +5976,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>41</v>
       </c>
@@ -5998,7 +6002,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>41</v>
       </c>
@@ -6024,7 +6028,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>41</v>
       </c>
@@ -6050,7 +6054,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>41</v>
       </c>
@@ -6076,7 +6080,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="134" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>41</v>
       </c>
@@ -6108,7 +6112,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>41</v>
       </c>
@@ -6134,7 +6138,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>41</v>
       </c>
@@ -6160,7 +6164,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="137" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>41</v>
       </c>
@@ -6192,7 +6196,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="138" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>41</v>
       </c>
@@ -6224,7 +6228,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="139" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>41</v>
       </c>
@@ -6253,7 +6257,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>41</v>
       </c>
@@ -6279,7 +6283,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>41</v>
       </c>
@@ -6311,7 +6315,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="142" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>41</v>
       </c>
@@ -6346,7 +6350,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="143" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>41</v>
       </c>
@@ -6381,7 +6385,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>41</v>
       </c>
@@ -6416,7 +6420,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>41</v>
       </c>
@@ -6448,7 +6452,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="146" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>41</v>
       </c>
@@ -6477,7 +6481,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="147" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>41</v>
       </c>
@@ -6506,7 +6510,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="148" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>41</v>
       </c>
@@ -6535,7 +6539,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="149" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>41</v>
       </c>
@@ -6561,7 +6565,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>41</v>
       </c>
@@ -6587,7 +6591,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>41</v>
       </c>
@@ -6614,7 +6618,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K151" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:K151" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="4">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
